--- a/src/assets/DB/DER.xlsx
+++ b/src/assets/DB/DER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\develop\clientes\hbenelli\hbenelliapp\src\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A153E18-5ACF-41AF-BF0E-F567087EBB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0C4A0-037A-413B-8FC5-33FD615E05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="2985" windowWidth="14370" windowHeight="11295" xr2:uid="{4DCCD0B9-03D2-448D-836E-B24A5F397148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DCCD0B9-03D2-448D-836E-B24A5F397148}"/>
   </bookViews>
   <sheets>
     <sheet name="der" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="436">
-  <si>
-    <t>hilo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -87,22 +84,7 @@
     <t>imagenBolsa</t>
   </si>
   <si>
-    <t>especia</t>
-  </si>
-  <si>
-    <t>insumo</t>
-  </si>
-  <si>
     <t>ingrediente</t>
-  </si>
-  <si>
-    <t>integral</t>
-  </si>
-  <si>
-    <t>Articulos {</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
   <si>
     <t>articulo</t>
@@ -2449,9 +2431,6 @@
     <t>subRubro</t>
   </si>
   <si>
-    <t>idRubro</t>
-  </si>
-  <si>
     <t>precioLista</t>
   </si>
   <si>
@@ -2462,6 +2441,9 @@
   </si>
   <si>
     <t>urlPhoto</t>
+  </si>
+  <si>
+    <t>subrubro</t>
   </si>
 </sst>
 </file>
@@ -3211,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEFB00E-0E83-4849-AD9F-F8583FDE2741}">
-  <dimension ref="D5:K30"/>
+  <dimension ref="D5:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,183 +3215,155 @@
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F19" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
       <c r="I26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3434,31 +3388,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,13 +3440,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3503,13 +3457,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3537,13 +3491,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3554,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,13 +3525,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3588,13 +3542,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3605,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,13 +3576,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,13 +3593,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,13 +3610,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3707,13 +3661,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,13 +3678,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3758,13 +3712,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,13 +3797,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,13 +3814,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,13 +3831,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3894,13 +3848,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,13 +3865,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,13 +3882,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,13 +3967,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4030,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4047,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4064,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4081,13 +4035,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4115,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4132,13 +4086,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4149,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4166,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4183,13 +4137,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4200,13 +4154,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4217,13 +4171,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,13 +4188,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,13 +4205,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4268,13 +4222,13 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F49">
         <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,13 +4239,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,13 +4256,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,13 +4273,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,13 +4290,13 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F53">
         <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4353,13 +4307,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,13 +4324,13 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F55">
         <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,13 +4341,13 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,13 +4358,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,13 +4375,13 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4438,13 +4392,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4455,13 +4409,13 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4472,13 +4426,13 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F61">
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,13 +4443,13 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F62">
         <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4506,13 +4460,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4523,13 +4477,13 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4540,13 +4494,13 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,13 +4511,13 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,13 +4528,13 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4591,13 +4545,13 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,13 +4562,13 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F69">
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,13 +4579,13 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F70">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,13 +4596,13 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4659,13 +4613,13 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4676,13 +4630,13 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,13 +4647,13 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4710,13 +4664,13 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4727,13 +4681,13 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4744,13 +4698,13 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,13 +4715,13 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4778,13 +4732,13 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F79">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4795,13 +4749,13 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4815,13 +4769,13 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,13 +4789,13 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,13 +4809,13 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,13 +4826,13 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F84">
         <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,13 +4843,13 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F85">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,13 +4860,13 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,13 +4877,13 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F87">
         <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,13 +4894,13 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F88">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,13 +4911,13 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,13 +4928,13 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F90">
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,13 +4945,13 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,13 +4962,13 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,13 +4979,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5042,13 +4996,13 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F94">
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5059,13 +5013,13 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5076,13 +5030,13 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F96">
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,13 +5047,13 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F97">
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,13 +5064,13 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5127,13 +5081,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F99">
         <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5144,13 +5098,13 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5161,13 +5115,13 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5178,13 +5132,13 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F102">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5195,13 +5149,13 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F103">
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5212,13 +5166,13 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5229,13 +5183,13 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F105">
         <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5246,13 +5200,13 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F106">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,13 +5217,13 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5280,13 +5234,13 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5297,13 +5251,13 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5314,13 +5268,13 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5348,13 +5302,13 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5365,13 +5319,13 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5382,13 +5336,13 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,13 +5353,13 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,13 +5370,13 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5433,13 +5387,13 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5450,13 +5404,13 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,13 +5421,13 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5484,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F120">
         <v>5</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5501,13 +5455,13 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F121">
         <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,13 +5472,13 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F122">
         <v>25</v>
       </c>
       <c r="G122" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5535,13 +5489,13 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F123">
         <v>25</v>
       </c>
       <c r="G123" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5552,13 +5506,13 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F124">
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5569,13 +5523,13 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F125">
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,13 +5540,13 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F126">
         <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,13 +5557,13 @@
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F127">
         <v>90</v>
       </c>
       <c r="G127" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5620,13 +5574,13 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F128">
         <v>70</v>
       </c>
       <c r="G128" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5637,13 +5591,13 @@
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F129">
         <v>90</v>
       </c>
       <c r="G129" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,13 +5608,13 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F130">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5671,13 +5625,13 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5688,13 +5642,13 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F132">
         <v>425</v>
       </c>
       <c r="G132" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,13 +5659,13 @@
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F133">
         <v>630</v>
       </c>
       <c r="G133" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5722,13 +5676,13 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,13 +5693,13 @@
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5756,13 +5710,13 @@
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5773,13 +5727,13 @@
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,13 +5744,13 @@
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5807,13 +5761,13 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,13 +5778,13 @@
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5841,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5858,13 +5812,13 @@
         <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5875,13 +5829,13 @@
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5892,13 +5846,13 @@
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5909,13 +5863,13 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5926,13 +5880,13 @@
         <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,13 +5897,13 @@
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F147">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5960,13 +5914,13 @@
         <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,13 +5931,13 @@
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,13 +5948,13 @@
         <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6011,13 +5965,13 @@
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6028,13 +5982,13 @@
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F152">
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,13 +5999,13 @@
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6062,13 +6016,13 @@
         <v>4</v>
       </c>
       <c r="E154" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6079,13 +6033,13 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6096,13 +6050,13 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6113,13 +6067,13 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F157">
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6130,13 +6084,13 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,13 +6101,13 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6164,13 +6118,13 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,13 +6135,13 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6198,13 +6152,13 @@
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6215,13 +6169,13 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6232,16 +6186,16 @@
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E164" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F164">
         <v>330</v>
       </c>
       <c r="G164" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6252,16 +6206,16 @@
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E165" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F165">
         <v>900</v>
       </c>
       <c r="G165" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6272,16 +6226,16 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E166" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F166">
         <v>330</v>
       </c>
       <c r="G166" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6292,16 +6246,16 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E167" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F167">
         <v>900</v>
       </c>
       <c r="G167" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6312,16 +6266,16 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E168" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F168">
         <v>330</v>
       </c>
       <c r="G168" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6332,16 +6286,16 @@
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F169">
         <v>330</v>
       </c>
       <c r="G169" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6352,16 +6306,16 @@
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E170" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F170">
         <v>330</v>
       </c>
       <c r="G170" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6372,16 +6326,16 @@
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E171" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F171">
         <v>900</v>
       </c>
       <c r="G171" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6392,16 +6346,16 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E172" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F172">
         <v>900</v>
       </c>
       <c r="G172" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6412,16 +6366,16 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E173" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F173">
         <v>900</v>
       </c>
       <c r="G173" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6432,16 +6386,16 @@
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E174" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F174">
         <v>900</v>
       </c>
       <c r="G174" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6452,16 +6406,16 @@
         <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E175" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F175">
         <v>900</v>
       </c>
       <c r="G175" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6472,16 +6426,16 @@
         <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E176" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F176">
         <v>330</v>
       </c>
       <c r="G176" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6492,16 +6446,16 @@
         <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E177" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F177">
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6512,16 +6466,16 @@
         <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E178" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F178">
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,16 +6486,16 @@
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E179" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F179">
         <v>100</v>
       </c>
       <c r="G179" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6552,16 +6506,16 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F180">
         <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,16 +6526,16 @@
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E181" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6592,16 +6546,16 @@
         <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F182">
         <v>100</v>
       </c>
       <c r="G182" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6612,16 +6566,16 @@
         <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E183" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F183">
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6632,16 +6586,16 @@
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F184">
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6652,16 +6606,16 @@
         <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F185">
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6672,16 +6626,16 @@
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E186" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F186">
         <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,16 +6646,16 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E187" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F187">
         <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6712,16 +6666,16 @@
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E188" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F188">
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6732,16 +6686,16 @@
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E189" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F189">
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6752,16 +6706,16 @@
         <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F190">
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6772,16 +6726,16 @@
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E191" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F191">
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6792,16 +6746,16 @@
         <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F192">
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,16 +6766,16 @@
         <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E193" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F193">
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6832,16 +6786,16 @@
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E194" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F194">
         <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6852,16 +6806,16 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E195" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F195">
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6872,16 +6826,16 @@
         <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F196">
         <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6892,16 +6846,16 @@
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E197" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F197">
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6912,16 +6866,16 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E198" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F198">
         <v>100</v>
       </c>
       <c r="G198" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6932,16 +6886,16 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E199" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F199">
         <v>50</v>
       </c>
       <c r="G199" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6952,16 +6906,16 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E200" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F200">
         <v>120</v>
       </c>
       <c r="G200" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6972,16 +6926,16 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E201" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6992,16 +6946,16 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E202" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F202">
         <v>900</v>
       </c>
       <c r="G202" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7012,16 +6966,16 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E203" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F203">
         <v>900</v>
       </c>
       <c r="G203" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7032,16 +6986,16 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E204" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F204">
         <v>900</v>
       </c>
       <c r="G204" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7052,16 +7006,16 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E205" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F205">
         <v>900</v>
       </c>
       <c r="G205" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7072,16 +7026,16 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E206" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F206">
         <v>900</v>
       </c>
       <c r="G206" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7092,16 +7046,16 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E207" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F207">
         <v>900</v>
       </c>
       <c r="G207" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7112,16 +7066,16 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E208" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F208">
         <v>900</v>
       </c>
       <c r="G208" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7132,16 +7086,16 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E209" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F209">
         <v>900</v>
       </c>
       <c r="G209" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7152,16 +7106,16 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E210" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F210">
         <v>900</v>
       </c>
       <c r="G210" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7172,16 +7126,16 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E211" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F211">
         <v>900</v>
       </c>
       <c r="G211" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7192,16 +7146,16 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E212" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F212">
         <v>900</v>
       </c>
       <c r="G212" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7212,16 +7166,16 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E213" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F213">
         <v>900</v>
       </c>
       <c r="G213" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7232,16 +7186,16 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E214" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F214">
         <v>900</v>
       </c>
       <c r="G214" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7252,16 +7206,16 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E215" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F215">
         <v>900</v>
       </c>
       <c r="G215" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7272,16 +7226,16 @@
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E216" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F216">
         <v>900</v>
       </c>
       <c r="G216" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7292,16 +7246,16 @@
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E217" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F217">
         <v>800</v>
       </c>
       <c r="G217" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7312,16 +7266,16 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E218" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F218">
         <v>800</v>
       </c>
       <c r="G218" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7332,16 +7286,16 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E219" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F219">
         <v>800</v>
       </c>
       <c r="G219" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7352,16 +7306,16 @@
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E220" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F220">
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7372,16 +7326,16 @@
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E221" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F221">
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7392,16 +7346,16 @@
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E222" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F222">
         <v>500</v>
       </c>
       <c r="G222" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7412,16 +7366,16 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E223" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F223">
         <v>500</v>
       </c>
       <c r="G223" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7432,16 +7386,16 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E224" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F224">
         <v>500</v>
       </c>
       <c r="G224" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7452,16 +7406,16 @@
         <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E225" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F225">
         <v>180</v>
       </c>
       <c r="G225" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7472,16 +7426,16 @@
         <v>8</v>
       </c>
       <c r="D226" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E226" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F226">
         <v>160</v>
       </c>
       <c r="G226" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7492,16 +7446,16 @@
         <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E227" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F227">
         <v>2500</v>
       </c>
       <c r="G227" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7512,16 +7466,16 @@
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E228" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F228">
         <v>180</v>
       </c>
       <c r="G228" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7532,16 +7486,16 @@
         <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E229" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7552,16 +7506,16 @@
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E230" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7572,16 +7526,16 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E231" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7592,16 +7546,16 @@
         <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F232">
         <v>900</v>
       </c>
       <c r="G232" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7612,16 +7566,16 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E233" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7632,16 +7586,16 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E234" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7652,16 +7606,16 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E235" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7672,16 +7626,16 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E236" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7692,16 +7646,16 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E237" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7712,16 +7666,16 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E238" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7732,16 +7686,16 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E239" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F239">
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7752,16 +7706,16 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E240" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7772,16 +7726,16 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E241" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7792,16 +7746,16 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E242" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7812,16 +7766,16 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E243" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7832,16 +7786,16 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E244" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7852,16 +7806,16 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E245" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7872,13 +7826,13 @@
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7889,16 +7843,16 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E247" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7909,16 +7863,16 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E248" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7929,16 +7883,16 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E249" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7949,16 +7903,16 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E250" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7969,16 +7923,16 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E251" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F251">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7989,16 +7943,16 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E252" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8009,16 +7963,16 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E253" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F253">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8029,13 +7983,13 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -8046,13 +8000,13 @@
         <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -8063,13 +8017,13 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F256">
         <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -8080,13 +8034,13 @@
         <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F257">
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8097,16 +8051,16 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E258" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F258">
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8117,16 +8071,16 @@
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E259" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F259">
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8137,16 +8091,16 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E260" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8157,16 +8111,16 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E261" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F261">
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8177,16 +8131,16 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E262" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F262">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8197,16 +8151,16 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E263" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F263">
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -8217,13 +8171,13 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -8234,13 +8188,13 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8251,16 +8205,16 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E266" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8271,16 +8225,16 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E267" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F267">
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8291,16 +8245,16 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E268" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F268">
         <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -8311,13 +8265,13 @@
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F269">
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8328,16 +8282,16 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E270" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F270">
         <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8348,16 +8302,16 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E271" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F271">
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -8368,13 +8322,13 @@
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F272">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8385,16 +8339,16 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E273" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -8405,13 +8359,13 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8422,16 +8376,16 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E275" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -8442,13 +8396,13 @@
         <v>9</v>
       </c>
       <c r="E276" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8459,16 +8413,16 @@
         <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E277" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F277">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -8479,13 +8433,13 @@
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F278">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8496,16 +8450,16 @@
         <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E279" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8516,16 +8470,16 @@
         <v>9</v>
       </c>
       <c r="D280" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E280" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -8536,13 +8490,13 @@
         <v>10</v>
       </c>
       <c r="E281" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8553,13 +8507,13 @@
         <v>10</v>
       </c>
       <c r="E282" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,13 +8524,13 @@
         <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -8587,13 +8541,13 @@
         <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8604,13 +8558,13 @@
         <v>10</v>
       </c>
       <c r="E285" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F285">
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8621,13 +8575,13 @@
         <v>10</v>
       </c>
       <c r="E286" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F286">
         <v>1</v>
       </c>
       <c r="G286" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8638,13 +8592,13 @@
         <v>10</v>
       </c>
       <c r="E287" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F287">
         <v>200</v>
       </c>
       <c r="G287" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -8655,13 +8609,13 @@
         <v>10</v>
       </c>
       <c r="E288" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F288">
         <v>100</v>
       </c>
       <c r="G288" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8672,13 +8626,13 @@
         <v>10</v>
       </c>
       <c r="E289" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8699,16 +8653,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8716,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8724,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,7 +8686,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8740,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8748,7 +8702,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8756,7 +8710,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8764,7 +8718,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,7 +8726,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,7 +8734,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,7 +8742,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8811,22 +8765,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8834,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8845,10 +8799,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8868,22 +8822,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8897,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8911,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,7 +8879,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8939,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8953,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8973,25 +8927,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9002,13 +8956,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9019,13 +8973,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9036,13 +8990,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9053,13 +9007,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9070,13 +9024,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9087,13 +9041,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
